--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3515696.275359738</v>
+        <v>3513444.19564853</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7845767.170793233</v>
+        <v>7845767.170793234</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>103.9069048230606</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>33.38304376058834</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>79.40252205331829</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>13.02719212039585</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>127.450398726549</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>252.3474771205396</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,10 +1054,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>77.31354443380407</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620237</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>120.6088074159611</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>55.17585209939448</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>220.2858449881291</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>15.42290135054921</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>141.6930519056947</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>34.03048557918976</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576149</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560505</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>178.2642147042095</v>
       </c>
     </row>
     <row r="23">
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428217</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>117.4765410832882</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>60.78102717027922</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>70.58974991479249</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883605</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>126.9263824507425</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3904,19 +3904,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,10 +3952,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>127.6065435523133</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.62132134232</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>926.121535257194</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3181.594906913448</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3181.594906913448</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2828.826251643334</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2455.360493382254</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2065.221161406442</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4425,10 +4425,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1007.446783179745</v>
+        <v>443.0505103572859</v>
       </c>
       <c r="C4" t="n">
-        <v>838.5106002518377</v>
+        <v>362.8459426266614</v>
       </c>
       <c r="D4" t="n">
-        <v>688.3939608395019</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E4" t="n">
-        <v>540.4808672571088</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F4" t="n">
-        <v>393.5909197591984</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G4" t="n">
-        <v>225.8880831339174</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>79.67089635177516</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088492</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088492</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>1637.877378051532</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X4" t="n">
-        <v>1409.887827153514</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y4" t="n">
-        <v>1189.095248009984</v>
+        <v>624.6989751875257</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1845.410930903096</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C5" t="n">
-        <v>1476.448413962684</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D5" t="n">
-        <v>1118.182715355934</v>
+        <v>552.807938939214</v>
       </c>
       <c r="E5" t="n">
-        <v>732.3944627576896</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>321.408557968082</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410102</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.016021139988</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2235.550262878908</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1845.410930903096</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>385.5649387724261</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>216.6287558445192</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
         <v>66.51211643218342</v>
@@ -4723,16 +4723,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1849.200058761417</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1560.097191887061</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1305.412703681174</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1015.995533644213</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>788.005982746196</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y7" t="n">
-        <v>567.2134036026658</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1712.341567565138</v>
+        <v>1239.503030201924</v>
       </c>
       <c r="C8" t="n">
-        <v>1343.379050624726</v>
+        <v>870.5405132615124</v>
       </c>
       <c r="D8" t="n">
-        <v>985.1133520179758</v>
+        <v>512.2748146547618</v>
       </c>
       <c r="E8" t="n">
-        <v>599.3250994197315</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F8" t="n">
-        <v>188.3391946301239</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866151</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.080739605071</v>
+        <v>2016.242202241858</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.94140762926</v>
+        <v>1626.102870266046</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>530.2513404403938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>361.3151575124869</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1704.783593555029</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1450.099105349142</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1160.681935312181</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X10" t="n">
-        <v>932.6923844141637</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>711.8998052706336</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,28 +5060,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>552.3777707160739</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2345.543151974895</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2125.941686997837</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1836.866460342035</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.866460342035</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,28 +5288,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E16" t="n">
         <v>402.7245934908938</v>
@@ -5428,58 +5428,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,40 +5492,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5540,22 +5540,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745237</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,67 +5732,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192377</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111693</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5817,34 +5817,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797182</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797182</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6054,40 +6054,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797182</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797182</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797182</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2387.388512467613</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6130,25 +6130,25 @@
         <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797747</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,16 +6221,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398594</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171305</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892237</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>414.4022433768879</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>414.4022433768879</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>414.4022433768879</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>247.2061440917678</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473703</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6783,22 +6783,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -6959,25 +6959,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7072,25 +7072,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>366.9636532421613</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7160,10 +7160,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7172,28 +7172,28 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,16 +7251,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7427,34 +7427,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745235</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1559.490355317016</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1042.083634382038</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>821.2910552385083</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7661,13 +7661,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438179</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>38.13892827624261</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>146.9958004224548</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>36.41624546988311</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431581</v>
       </c>
       <c r="G19" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194215</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
     </row>
     <row r="23">
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>31.13893193492417</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>106.4657939283486</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>69.70496293143137</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,13 +25321,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>35.40333084624521</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>19.50758019582666</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,10 +25840,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>124.5310997715147</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>45.44677382459307</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>675655.0481844523</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>675655.0481844521</v>
+        <v>675655.0481844522</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>675655.0481844521</v>
+        <v>675655.0481844522</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.048184452</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>675655.0481844521</v>
+        <v>675655.0481844522</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>675655.0481844523</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>675655.0481844521</v>
+        <v>675655.0481844522</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244628</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
+        <v>746610.604713255</v>
+      </c>
+      <c r="I2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="I2" t="n">
-        <v>746610.6047132555</v>
-      </c>
       <c r="J2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="K2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="M2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="M2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="O2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972776</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813257</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
+        <v>10557.08828678117</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10557.08828678119</v>
+      </c>
+      <c r="G4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="F4" t="n">
-        <v>10557.08828678126</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10557.08828678126</v>
-      </c>
       <c r="H4" t="n">
-        <v>10557.08828678135</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="I4" t="n">
+        <v>10557.08828678116</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10557.08828678116</v>
+      </c>
+      <c r="K4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10557.08828678117</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10557.08828678122</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="N4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678124</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-766959.1722226553</v>
+        <v>-766959.1722226562</v>
       </c>
       <c r="C6" t="n">
+        <v>561785.5735049369</v>
+      </c>
+      <c r="D6" t="n">
         <v>561785.5735049366</v>
       </c>
-      <c r="D6" t="n">
-        <v>561785.5735049369</v>
-      </c>
       <c r="E6" t="n">
-        <v>309518.5247952116</v>
+        <v>309483.786869776</v>
       </c>
       <c r="F6" t="n">
-        <v>634930.986602567</v>
+        <v>634896.2486771313</v>
       </c>
       <c r="G6" t="n">
-        <v>634930.986602567</v>
+        <v>634896.2486771314</v>
       </c>
       <c r="H6" t="n">
-        <v>634930.9866025669</v>
+        <v>634896.248677131</v>
       </c>
       <c r="I6" t="n">
-        <v>634930.9866025671</v>
+        <v>634896.2486771314</v>
       </c>
       <c r="J6" t="n">
-        <v>417399.7842052897</v>
+        <v>417365.0462798536</v>
       </c>
       <c r="K6" t="n">
-        <v>634930.9866025669</v>
+        <v>634896.2486771315</v>
       </c>
       <c r="L6" t="n">
-        <v>634930.9866025669</v>
+        <v>634896.2486771315</v>
       </c>
       <c r="M6" t="n">
-        <v>549875.9586670554</v>
+        <v>549841.2207416194</v>
       </c>
       <c r="N6" t="n">
-        <v>634930.9866025671</v>
+        <v>634896.2486771313</v>
       </c>
       <c r="O6" t="n">
-        <v>634930.9866025671</v>
+        <v>634896.2486771314</v>
       </c>
       <c r="P6" t="n">
-        <v>634930.9866025669</v>
+        <v>634896.2486771315</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>302.9691409186509</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>217.6121281983136</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>87.84429904530954</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>83.32522828944226</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>254.4799713457128</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>158.5742485329139</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>142.2354048423651</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>290.3129182374923</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>314.5552485790745</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>65.92599321748378</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>271.1000969860418</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-5.86741080007012e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-8.424525727746915e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.126388037344441e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,25 +31835,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060501</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>322.7581251332982</v>
       </c>
       <c r="N18" t="n">
-        <v>754.000239683233</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>173.3851399586643</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,31 +32786,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>307.3280120589129</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33020,31 +33020,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>362.8934092184356</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33257,7 +33257,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>691.6611968462889</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33731,31 +33731,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>269.1634560719501</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817577</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33971,19 +33971,19 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>705.9257335045844</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>173.3851399586643</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832332</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,46 +34281,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34442,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622667</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,25 +35483,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>180.6240912112798</v>
       </c>
       <c r="N18" t="n">
-        <v>622.6585275998997</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402482</v>
+        <v>31.25110603664601</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36364,7 +36364,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193518</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>167.3462379728913</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>224.3390294385614</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789214</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>560.3194847629557</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499318</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>574.5840214212511</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>31.25110603664601</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998999</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402485</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
